--- a/input/ToolTaiAnhTheoLinkTrangSanPham/InputLinkTrang.xlsx
+++ b/input/ToolTaiAnhTheoLinkTrangSanPham/InputLinkTrang.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>URL</t>
   </si>
@@ -46,16 +46,10 @@
     <t>max</t>
   </si>
   <si>
-    <t>https://pinsandaces.com/collections/mens-polos?page=1</t>
-  </si>
-  <si>
-    <t>https://pinsandaces.com/collections/mens-polos?page=2</t>
-  </si>
-  <si>
-    <t>https://pinsandaces.com/collections/mens-polos?page=3</t>
-  </si>
-  <si>
-    <t>polo1809</t>
+    <t>testanhtuan1711</t>
+  </si>
+  <si>
+    <t>https://grishko.com/shop/</t>
   </si>
 </sst>
 </file>
@@ -389,7 +383,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -416,36 +410,21 @@
     </row>
     <row r="2" spans="1:4" ht="16.5">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="16.5">
       <c r="B5" s="2"/>
@@ -454,10 +433,6 @@
       <c r="B6" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
